--- a/AfDD_2024_Annex_Table_Tab26.xlsx
+++ b/AfDD_2024_Annex_Table_Tab26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B96E5D8-4DB3-4585-9175-BB3A7FF0C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F9A0BE-4DF6-4909-9E54-964E0917BF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{502FEB18-7CC0-4BF7-B44C-9B54DADDDA8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45C55249-AF5D-46EB-93CB-A83BE6A5121E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1677,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35977614-C8C3-4F6C-A688-4C63AFABAFAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78669BFE-4C35-46F2-B07C-3A0FA4BB8A0D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12407,12 +12407,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F41CCF0D-492D-4C56-A7F5-1669E8CF302E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8583DAFF-3E76-45FB-86FD-E75A2D2D98E8}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{06BBE745-8450-486F-8698-67FF672A2720}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{26059E3F-61BA-4413-8574-5E33A8DDCB35}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{E5ED93C4-954C-4794-82A8-87ECACF1B2B2}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{1D8011FD-DCDF-486A-9D4E-A8B9A265EE05}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C9F2BE64-0C6E-4E9F-AF05-564526D6E6F2}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6C5101D0-3F7F-412C-9215-CE6857302245}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{92408A1A-61B3-4AAA-85FB-A9232EC0930F}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{35336903-AC22-4290-9E05-64BFEDADCAE9}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{E5195B9D-EC19-44CA-ACC0-05DE0C5354F9}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{AEAADC48-BA75-4878-9CA4-AF6EDA7E0682}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab26.xlsx
+++ b/AfDD_2024_Annex_Table_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F9A0BE-4DF6-4909-9E54-964E0917BF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C89EAF98-C524-43A3-A334-A4518F3E4018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45C55249-AF5D-46EB-93CB-A83BE6A5121E}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E04A474E-F56F-4C9C-A5F1-1145267E3F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1359,9 +1359,9 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1677,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78669BFE-4C35-46F2-B07C-3A0FA4BB8A0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA585C3-3923-468E-87A5-F7C72A86782D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1689,13 +1689,13 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" style="129" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="12.42578125" style="130" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12.5703125" style="129" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="129" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="12.5703125" style="129" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="129" bestFit="1" customWidth="1"/>
-    <col min="26" max="34" width="12.42578125" style="129" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="6" max="16" width="12.42578125" style="131" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.5703125" style="130" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="12.5703125" style="130" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="26" max="34" width="12.42578125" style="130" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12262,7 +12262,7 @@
       <c r="AH110" s="127"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B111" s="131" t="s">
+      <c r="B111" s="129" t="s">
         <v>196</v>
       </c>
       <c r="C111" s="127"/>
@@ -12299,7 +12299,7 @@
       <c r="AH111" s="127"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="129" t="s">
         <v>193</v>
       </c>
       <c r="C112" s="127"/>
@@ -12407,12 +12407,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C9F2BE64-0C6E-4E9F-AF05-564526D6E6F2}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6C5101D0-3F7F-412C-9215-CE6857302245}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{92408A1A-61B3-4AAA-85FB-A9232EC0930F}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{35336903-AC22-4290-9E05-64BFEDADCAE9}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{E5195B9D-EC19-44CA-ACC0-05DE0C5354F9}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{AEAADC48-BA75-4878-9CA4-AF6EDA7E0682}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2B113761-42BC-46E2-A05C-AE8C60313D9F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{68F764A6-7C25-4465-BEB0-EED9DEF5990E}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0BC9CECB-E56E-43C7-8B2F-DB0202C0F19F}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{8546671E-336C-4033-B5B8-3DECAB05EEE8}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{D3F1FDD5-CBB5-4E94-822B-771328CA3742}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{BE0CCD8D-2EF9-48BA-87A9-07004DA0E3D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab26.xlsx
+++ b/AfDD_2024_Annex_Table_Tab26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C89EAF98-C524-43A3-A334-A4518F3E4018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDBE2C47-4A66-4DE6-8866-8B420A02ABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E04A474E-F56F-4C9C-A5F1-1145267E3F6E}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{8994FA1D-47A4-42CD-AD17-DBA86AF06040}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab26" sheetId="1" r:id="rId1"/>
@@ -1677,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA585C3-3923-468E-87A5-F7C72A86782D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B37FD16-3DCF-4903-860E-015B42A72EBE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12407,12 +12407,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2B113761-42BC-46E2-A05C-AE8C60313D9F}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{68F764A6-7C25-4465-BEB0-EED9DEF5990E}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0BC9CECB-E56E-43C7-8B2F-DB0202C0F19F}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{8546671E-336C-4033-B5B8-3DECAB05EEE8}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{D3F1FDD5-CBB5-4E94-822B-771328CA3742}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{BE0CCD8D-2EF9-48BA-87A9-07004DA0E3D8}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{66C9B98F-6A35-41A1-8D96-B018599F875D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{05DE090C-8D45-49A0-9913-98FEEBA32D1D}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D700A7B8-479E-4546-B583-9622F965D79A}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{E64B9566-3AB7-402B-AA79-90D037F5102A}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{56570739-D32A-4B60-8C6D-406C712FFDE8}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{E5ECD4F2-621F-450B-9D12-9A11FA610B89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
